--- a/data/hotels_by_city/Houston/Houston_shard_175.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_175.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56062-d8735880-Reviews-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Katy-Hotels-Days-Inn-Suites-By-Wyndham-Katy.h11958958.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1082 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r584118249-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>8735880</t>
+  </si>
+  <si>
+    <t>584118249</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>All the upper mid-scale hotels were sold out, decided to stay at this place. Awesome place has more amenities than upper midscale hotels and half the price. The bed is real awesome and has direct tv so plenty of channels and movie options. HBO, Cinnemax, and has a friendly staff. Did not stay for breakfast but saw tons of items. I am sure it was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty1, Hotel Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded June 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2018</t>
+  </si>
+  <si>
+    <t>All the upper mid-scale hotels were sold out, decided to stay at this place. Awesome place has more amenities than upper midscale hotels and half the price. The bed is real awesome and has direct tv so plenty of channels and movie options. HBO, Cinnemax, and has a friendly staff. Did not stay for breakfast but saw tons of items. I am sure it was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r583057753-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>583057753</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Pleasant Memorial Day Stay</t>
+  </si>
+  <si>
+    <t>We were traveling down I-10 and saw Days Inn so we pulled over, we walked in and the lobby was amazing. I immediately knew the rooms will be amazing. I walked in the room and everything was perfect. The next morning the breakfast was beyond what days inn usually offers. Especially for the rate their were tons of items for breakfast. During breakfast I read reviews about paint marks , however their were painters working in the morning so looks like they are repainting all the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty1, Hotel Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2018</t>
+  </si>
+  <si>
+    <t>We were traveling down I-10 and saw Days Inn so we pulled over, we walked in and the lobby was amazing. I immediately knew the rooms will be amazing. I walked in the room and everything was perfect. The next morning the breakfast was beyond what days inn usually offers. Especially for the rate their were tons of items for breakfast. During breakfast I read reviews about paint marks , however their were painters working in the morning so looks like they are repainting all the rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r577923617-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>577923617</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Amazing stay</t>
+  </si>
+  <si>
+    <t>I absolutely loved staying at the Days Inn. Danny the receptionist was very helpful and friendly as well as the other staff members.The breakfast had a great selection to choose from which I loved. The room was very clean and neat. The King size bed was so comfortable! I absolutely loved staying here and will be coming back again. I had a wonderful experience here and highly recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty1, Hotel Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded May 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2018</t>
+  </si>
+  <si>
+    <t>I absolutely loved staying at the Days Inn. Danny the receptionist was very helpful and friendly as well as the other staff members.The breakfast had a great selection to choose from which I loved. The room was very clean and neat. The King size bed was so comfortable! I absolutely loved staying here and will be coming back again. I had a wonderful experience here and highly recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r574651704-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>574651704</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>Reasonable and convienient location</t>
+  </si>
+  <si>
+    <t>Stayed here for a week.  The rate includes breakfast, if you want breakfast, you need to go early, since they tend to run out of food. I asked if the had any more and the gentleman at the desk said no they were all out.  There were no more eggs or bananas, then the cleaning crew arrived and told the gentleman at the front desk they were out of bananas, he said there was more in the back and they got the food out and started eating the food.  The rooms are ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty1, Hotel Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for a week.  The rate includes breakfast, if you want breakfast, you need to go early, since they tend to run out of food. I asked if the had any more and the gentleman at the desk said no they were all out.  There were no more eggs or bananas, then the cleaning crew arrived and told the gentleman at the front desk they were out of bananas, he said there was more in the back and they got the food out and started eating the food.  The rooms are ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r574458274-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>574458274</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Great place to stay with an affordable price. Clean rooms, friendly staff, and wonderful breakfast. Complimented employee would be Mr. Danny at the front desk. He went above and beyond to help us out for all our concerns and questions we had about the area and around. We enjoyed our stay here, y'all will love it too. Keep up the good work everyone up there and we look forward to come see you guys again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place to stay with an affordable price. Clean rooms, friendly staff, and wonderful breakfast. Complimented employee would be Mr. Danny at the front desk. He went above and beyond to help us out for all our concerns and questions we had about the area and around. We enjoyed our stay here, y'all will love it too. Keep up the good work everyone up there and we look forward to come see you guys again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r574457161-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>574457161</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Great hotel friendly and helpfull staff hotel is new  rooms were really neat and clean awesome breakfast great location so many restaurants near by and good part is all the rooms are non smoking so really a great hotel for family 100% recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel friendly and helpfull staff hotel is new  rooms were really neat and clean awesome breakfast great location so many restaurants near by and good part is all the rooms are non smoking so really a great hotel for family 100% recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r559700565-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>559700565</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Good Hotel in Katy</t>
+  </si>
+  <si>
+    <t>We stayed for a night when visiting area in December. The hotel was easy to find, check in/out was smooth. The hotel is well located, close to many stores and restaurants. The room we got was spacious and clean, bed comfortable. Breakfast simple, but filling. We had a good stay and would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, Webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2018</t>
+  </si>
+  <si>
+    <t>We stayed for a night when visiting area in December. The hotel was easy to find, check in/out was smooth. The hotel is well located, close to many stores and restaurants. The room we got was spacious and clean, bed comfortable. Breakfast simple, but filling. We had a good stay and would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r556323364-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>556323364</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>Horrible, filty experience! Stained walls, furniture &amp; linens. Booked through priceline, so hotel would not issue refundMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Horrible, filty experience! Stained walls, furniture &amp; linens. Booked through priceline, so hotel would not issue refundMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r553911217-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>553911217</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r548898727-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>548898727</t>
+  </si>
+  <si>
+    <t>12/23/2017</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>This new hotel is mostly contract worker used, but it was an excellent value in a good location. Easy access to I-10. All new and nicely appointed. The only issue was the bed, which was set quite high off the floor. I liked its firmness but my partner was less satisfied. Also, it could use triple pane windows or something as the local and highway noise was loud.  Safe, secure, good location. MoreShow less</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, Webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2017</t>
+  </si>
+  <si>
+    <t>This new hotel is mostly contract worker used, but it was an excellent value in a good location. Easy access to I-10. All new and nicely appointed. The only issue was the bed, which was set quite high off the floor. I liked its firmness but my partner was less satisfied. Also, it could use triple pane windows or something as the local and highway noise was loud.  Safe, secure, good location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r548441325-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>548441325</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Katy TX</t>
+  </si>
+  <si>
+    <t>Great stay, nice staff and very accommodating, good breakfast, always clean, outstanding internet service. I’d pick again if needed and location for eating out or drinks was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, Webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Great stay, nice staff and very accommodating, good breakfast, always clean, outstanding internet service. I’d pick again if needed and location for eating out or drinks was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r543612113-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>543612113</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, Webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r539863783-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>539863783</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Staff was friendly and able to accomodate us. The hotel was clean, as were the grounds and was near everything I needed to be around. The only thing I wish was that they had more amenities. The office staff was considerate and always offered any assistance they could. I would gladly stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Staff was friendly and able to accomodate us. The hotel was clean, as were the grounds and was near everything I needed to be around. The only thing I wish was that they had more amenities. The office staff was considerate and always offered any assistance they could. I would gladly stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r537716582-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>537716582</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Days Inn Katy</t>
+  </si>
+  <si>
+    <t>This is a nice hotel that is convenient to I-10.  We enjoyed a clean, nice sized suite with a very comfortable bed and absolutely awesome pillows. Breakfast featured sausage and eggs as well as the usual continental breakfast items. We would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, Webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded November 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2017</t>
+  </si>
+  <si>
+    <t>This is a nice hotel that is convenient to I-10.  We enjoyed a clean, nice sized suite with a very comfortable bed and absolutely awesome pillows. Breakfast featured sausage and eggs as well as the usual continental breakfast items. We would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r537170295-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>537170295</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>good for a quick stay</t>
+  </si>
+  <si>
+    <t>Good location just off the interstate, checkin was quick, and staff was friendly enough.The room was fine, quite large, well appointed and clean.Breakfast was disappointing, minimal hot food and no condiments. Overall decent value.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Good location just off the interstate, checkin was quick, and staff was friendly enough.The room was fine, quite large, well appointed and clean.Breakfast was disappointing, minimal hot food and no condiments. Overall decent value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r524432064-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>524432064</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>Nice and clean. Nice queen size bed, regular size reading table. Great room service, continental breakfast was ok, as usual. Nothing spectacular, your regular bagel, egg, bacon and orange juice and others. The same you will find in any American 4 star hotel. The only issue was bad Wifi. I asked to be moved to another room. Still the wifi and phone connection issue continued. I asked the receptionist to call the phone company to resolve connection issue on wifi and cellphone line issue. And yes, there was a phone communication repair in that location that day. And for a couple of days ahead also. Other than that my stay went well. The hotel is located in a nice clean neighborhood, close to hwy 6 and 10. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, Webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Nice and clean. Nice queen size bed, regular size reading table. Great room service, continental breakfast was ok, as usual. Nothing spectacular, your regular bagel, egg, bacon and orange juice and others. The same you will find in any American 4 star hotel. The only issue was bad Wifi. I asked to be moved to another room. Still the wifi and phone connection issue continued. I asked the receptionist to call the phone company to resolve connection issue on wifi and cellphone line issue. And yes, there was a phone communication repair in that location that day. And for a couple of days ahead also. Other than that my stay went well. The hotel is located in a nice clean neighborhood, close to hwy 6 and 10. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r522887347-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>522887347</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r518537348-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>518537348</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Taking shelter from the storm.</t>
+  </si>
+  <si>
+    <t>Let me start off by saying that the staff here is very friendly, helpful and very compassionate to us in our time of need. Maintaining their high standard of customer service. I also want to thank the cleaning staff for their hospitality. Thank you for making us feel welcome. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Let me start off by saying that the staff here is very friendly, helpful and very compassionate to us in our time of need. Maintaining their high standard of customer service. I also want to thank the cleaning staff for their hospitality. Thank you for making us feel welcome. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r505886470-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>505886470</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Hotel is as advertise. My room didn't get cleaned and when I informed the night desk clerk, he offered me the sheets to change the bed myself.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r500719027-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>500719027</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Not happy!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was our second stay at this hotel. Stayed 3 nights. Came back to hotel after a day with family to find the door of our room open. Deadbolt was opened so door would not  close. Left that way by housekeeping. Complained to front desk. Asked to speak to Manager. We were never contacted by manager or anyone else associated with this establishment. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r496873411-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>496873411</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Last min booking!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are parents of two and anyone knows thats hard! We had a birthday party an hour away from our home and then visited with friends in Katy! Realizing we were having TOO good of a time.. We booked the room not wanting to drive home with our precious cargo! Called a cab and packed the kiddos up arrived and the guy was so nice to let us check in so late (early) in the morning! The room was clean, nice and we all fit on the bed!! Our daughter loved the experience. Lol. I would recommend them to anyone especially families! </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r493480860-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>493480860</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Katy Tx, Jun 17</t>
+  </si>
+  <si>
+    <t>This is the second time that we have stayed at this Motel while visiting relatives in Katy.  It has easy access to/from I-10.  The rooms still have that new room feel and it has an electric pancake machine for breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, Webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded October 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2017</t>
+  </si>
+  <si>
+    <t>This is the second time that we have stayed at this Motel while visiting relatives in Katy.  It has easy access to/from I-10.  The rooms still have that new room feel and it has an electric pancake machine for breakfast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r491451815-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>491451815</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r490086518-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>490086518</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>days inn</t>
+  </si>
+  <si>
+    <t>I did not get the suite I was supposed to get and did not receive the discount on the room I was told I would get for staying in a smaller room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r487967264-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>487967264</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r485362993-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>485362993</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Poor stay at Days Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first room lock at the door was not working because of some batteries issue, The AC system didn't work and they changed us to another room. The Second room the bathroom was not clean and TV remote control not working </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r484738889-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>484738889</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r479533054-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>479533054</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r476879239-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>476879239</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r475326973-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>475326973</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Served its purpose</t>
+  </si>
+  <si>
+    <t>We were cruising out of Galveston &amp; had a room booked there for the night before. We found out storms were to come through that day, so we decided to leave a day earlier. Our hotel had no avail so I found this. The hotel was super clean. The guys at the front desk were so nice and personable. There are some restaurants within a 5 mile drive which was nice. The cable worked and the wifi signal was good. The ONLY complaint I have is that while the hotel is somewhat set back off of the roadway, all I heard all night was the cars and sirens. It was like I had a window open. In a pinch, I'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were cruising out of Galveston &amp; had a room booked there for the night before. We found out storms were to come through that day, so we decided to leave a day earlier. Our hotel had no avail so I found this. The hotel was super clean. The guys at the front desk were so nice and personable. There are some restaurants within a 5 mile drive which was nice. The cable worked and the wifi signal was good. The ONLY complaint I have is that while the hotel is somewhat set back off of the roadway, all I heard all night was the cars and sirens. It was like I had a window open. In a pinch, I'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r459710293-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>459710293</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Decent rooms, but no Internet</t>
+  </si>
+  <si>
+    <t>Room was nice and clean. But internet was down and there was no phone that worked in our room. The breakfast with was pretty much non existent and coffee was never made.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r456748764-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>456748764</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>1 night stay</t>
+  </si>
+  <si>
+    <t>We were just passing through town. The room was clean enough and we had a restful night sleep. The remote didn't work and the cable only had infomercials which was a bummer. Grocery store was walking distance which was nice because we were hauling a trailer. Great trailer parking in back of hotel too!</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r456299419-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>456299419</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t>Hotel was very clean, room was very very nice, clean, neighbors were quiet and it was my daughter and I, both women and I felt safe.  Night desk guy really helpful and very kind, I was exhausted when I got there and he put us downstairs and was really quick checking us in.  Will stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r448336649-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>448336649</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>New and modern</t>
+  </si>
+  <si>
+    <t>We booked this room last minute on Christmas, and having not visited Katy before, we were unsure what we would find.  We were pleasantly suprised! The room felt like an upscale hotel.  The room was clean,  comfortable and modern.  I can honestly say that it rivaled the room we recently  had at a popular upscale hotel. We will definitely stay again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r446938038-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>446938038</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r439290684-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>439290684</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>FANTASTIC</t>
+  </si>
+  <si>
+    <t>We totally enjoyed our stay at this hotel. It is new and it is well taken care of. The staff was extremely helpful. Will stay here again.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r435992958-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>435992958</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i love it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">everything its so clean and they have a good breakfast .. i was just one night and i want to go back  ... i dont know why the people its just complicated and they want to resolve the problems for seconds person ... if you dont like just do it by yourself .. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r433866613-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>433866613</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>If you're short, you might want a step stool</t>
+  </si>
+  <si>
+    <t>We made a trip to  Katy for a family function and needed a place to stay for two nights. Based on comments on Trip Advisor, we made a guaranteed reservation at the Day's Inn through a link to Expedia on the site. We opted for an upgrade to a room with a kitchenette at an additional cost. When we arrived, no such rooms were available. We wound up settling for a dual queen with a MW  and fridge, which we  understand are available in all the rooms. The desk clerk would not adjust the rate for the extra charge.. It was late and we were tired, so I gave in and took the room. Thankfully, there was an elevator  to our 2nd floor room  and the room was quite nice. Everything was clean, including the fridge, which often seems to be overlooked by housekeeping. The TV worked well, but the remote was a bit complicated. The Wi-Fi worked well and was faster than ours at home. We liked the grab bar in the tub. We also liked the wall mounted thermostat, but suspect its sensor was off a bit.  The beds were comfortable, once you got into them. The mattress top was nearly a foot higher than our bed at home. My wife, who is about 5' tall, found it very difficult to get into the bed. I'm taller, but ran into trouble during the night when nature called. You...We made a trip to  Katy for a family function and needed a place to stay for two nights. Based on comments on Trip Advisor, we made a guaranteed reservation at the Day's Inn through a link to Expedia on the site. We opted for an upgrade to a room with a kitchenette at an additional cost. When we arrived, no such rooms were available. We wound up settling for a dual queen with a MW  and fridge, which we  understand are available in all the rooms. The desk clerk would not adjust the rate for the extra charge.. It was late and we were tired, so I gave in and took the room. Thankfully, there was an elevator  to our 2nd floor room  and the room was quite nice. Everything was clean, including the fridge, which often seems to be overlooked by housekeeping. The TV worked well, but the remote was a bit complicated. The Wi-Fi worked well and was faster than ours at home. We liked the grab bar in the tub. We also liked the wall mounted thermostat, but suspect its sensor was off a bit.  The beds were comfortable, once you got into them. The mattress top was nearly a foot higher than our bed at home. My wife, who is about 5' tall, found it very difficult to get into the bed. I'm taller, but ran into trouble during the night when nature called. You  might want to consider bringing a stool if you're short. My wife used the breakfast area and said it was better than most. The motel is conveniently located near I-10, but the left turn to the access road comes pretty quickly and  we missed it two times at night. There are several restaurants nearby. Overall, it was a good value compared to other motels in the area, but we weren't happy with not getting what we'd reserved.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>We made a trip to  Katy for a family function and needed a place to stay for two nights. Based on comments on Trip Advisor, we made a guaranteed reservation at the Day's Inn through a link to Expedia on the site. We opted for an upgrade to a room with a kitchenette at an additional cost. When we arrived, no such rooms were available. We wound up settling for a dual queen with a MW  and fridge, which we  understand are available in all the rooms. The desk clerk would not adjust the rate for the extra charge.. It was late and we were tired, so I gave in and took the room. Thankfully, there was an elevator  to our 2nd floor room  and the room was quite nice. Everything was clean, including the fridge, which often seems to be overlooked by housekeeping. The TV worked well, but the remote was a bit complicated. The Wi-Fi worked well and was faster than ours at home. We liked the grab bar in the tub. We also liked the wall mounted thermostat, but suspect its sensor was off a bit.  The beds were comfortable, once you got into them. The mattress top was nearly a foot higher than our bed at home. My wife, who is about 5' tall, found it very difficult to get into the bed. I'm taller, but ran into trouble during the night when nature called. You...We made a trip to  Katy for a family function and needed a place to stay for two nights. Based on comments on Trip Advisor, we made a guaranteed reservation at the Day's Inn through a link to Expedia on the site. We opted for an upgrade to a room with a kitchenette at an additional cost. When we arrived, no such rooms were available. We wound up settling for a dual queen with a MW  and fridge, which we  understand are available in all the rooms. The desk clerk would not adjust the rate for the extra charge.. It was late and we were tired, so I gave in and took the room. Thankfully, there was an elevator  to our 2nd floor room  and the room was quite nice. Everything was clean, including the fridge, which often seems to be overlooked by housekeeping. The TV worked well, but the remote was a bit complicated. The Wi-Fi worked well and was faster than ours at home. We liked the grab bar in the tub. We also liked the wall mounted thermostat, but suspect its sensor was off a bit.  The beds were comfortable, once you got into them. The mattress top was nearly a foot higher than our bed at home. My wife, who is about 5' tall, found it very difficult to get into the bed. I'm taller, but ran into trouble during the night when nature called. You  might want to consider bringing a stool if you're short. My wife used the breakfast area and said it was better than most. The motel is conveniently located near I-10, but the left turn to the access road comes pretty quickly and  we missed it two times at night. There are several restaurants nearby. Overall, it was a good value compared to other motels in the area, but we weren't happy with not getting what we'd reserved.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r432183612-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>432183612</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r421995772-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>421995772</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>VERY UNHAPPY CUSTOMER</t>
+  </si>
+  <si>
+    <t>Do not stay here!!! Customer service sucks!! The people behind the counter must have trained with  the IRS!   Ask for anything and expect a delay or stall or better yet they raise the price on the fly!!!Horrible Horrible. management is nonexistent or doesn't care!!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r405311542-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>405311542</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Nice place for money</t>
+  </si>
+  <si>
+    <t>My husband booked the room for the price so I was skeptical. We pulled up and it was a rather small hotel with doors accessible from the outside and in my experience those types of rooms never impress me. A nice feature that I greatly appreciated is that where the building makes a 90 degree angle, there is an outdoor elevator (on opposite end are stairs). I was pleasantly suprised because the room was really nice and modern. We stayed in a room with a king bed. I'm 5'6" and the bed was high, to where I had to stand on the balls of my feet to hop onto it. I don't know if I was just really tired, but I must say I slept very comfortably. Most importantly, it was clean. For the price, I was also suprised that it came with a microwave and mini fridge which are always nice and convenient. 
+ Everything was pretty much great with exception of my experience with the breakfast area. In all fairness it was 915 when I showed up so maybe the rush cleared it out, but it seemed so empty. All three shelves of pastry were empty with exception of 1 pastry left. There was 1 yogurt left. With the hot breakfast, one of the bins was empty. I asked if a breakfast meat was supposed to be there and the front desk agent was sweet and helpful and got...My husband booked the room for the price so I was skeptical. We pulled up and it was a rather small hotel with doors accessible from the outside and in my experience those types of rooms never impress me. A nice feature that I greatly appreciated is that where the building makes a 90 degree angle, there is an outdoor elevator (on opposite end are stairs). I was pleasantly suprised because the room was really nice and modern. We stayed in a room with a king bed. I'm 5'6" and the bed was high, to where I had to stand on the balls of my feet to hop onto it. I don't know if I was just really tired, but I must say I slept very comfortably. Most importantly, it was clean. For the price, I was also suprised that it came with a microwave and mini fridge which are always nice and convenient.  Everything was pretty much great with exception of my experience with the breakfast area. In all fairness it was 915 when I showed up so maybe the rush cleared it out, but it seemed so empty. All three shelves of pastry were empty with exception of 1 pastry left. There was 1 yogurt left. With the hot breakfast, one of the bins was empty. I asked if a breakfast meat was supposed to be there and the front desk agent was sweet and helpful and got some for me. The sausage links she brought were cold though and I had to heat them up in microwave. The eggs were the type that were circle shaped. I briefly wondered if there were biscuits to make a sandwich but I didn't ask. What I found curious is that salsa was not a condiment for the eggs. A word of advice is to make salsa packets a condiment-this is the first Texas hotel that I have stayed at that does not have it as a condiment. At most TX hotels, hot breakfasts are either pancakes or waffles. This hotel has a pancake maker. Coffee was in the containers that you pump with your hand and I luckily got the last cup. It was typical hotel breakfast fare. Overall, great stay and great place to stay for the money! Would definitely recommend if you're on a budget and need someplace to stay for a quick weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>My husband booked the room for the price so I was skeptical. We pulled up and it was a rather small hotel with doors accessible from the outside and in my experience those types of rooms never impress me. A nice feature that I greatly appreciated is that where the building makes a 90 degree angle, there is an outdoor elevator (on opposite end are stairs). I was pleasantly suprised because the room was really nice and modern. We stayed in a room with a king bed. I'm 5'6" and the bed was high, to where I had to stand on the balls of my feet to hop onto it. I don't know if I was just really tired, but I must say I slept very comfortably. Most importantly, it was clean. For the price, I was also suprised that it came with a microwave and mini fridge which are always nice and convenient. 
+ Everything was pretty much great with exception of my experience with the breakfast area. In all fairness it was 915 when I showed up so maybe the rush cleared it out, but it seemed so empty. All three shelves of pastry were empty with exception of 1 pastry left. There was 1 yogurt left. With the hot breakfast, one of the bins was empty. I asked if a breakfast meat was supposed to be there and the front desk agent was sweet and helpful and got...My husband booked the room for the price so I was skeptical. We pulled up and it was a rather small hotel with doors accessible from the outside and in my experience those types of rooms never impress me. A nice feature that I greatly appreciated is that where the building makes a 90 degree angle, there is an outdoor elevator (on opposite end are stairs). I was pleasantly suprised because the room was really nice and modern. We stayed in a room with a king bed. I'm 5'6" and the bed was high, to where I had to stand on the balls of my feet to hop onto it. I don't know if I was just really tired, but I must say I slept very comfortably. Most importantly, it was clean. For the price, I was also suprised that it came with a microwave and mini fridge which are always nice and convenient.  Everything was pretty much great with exception of my experience with the breakfast area. In all fairness it was 915 when I showed up so maybe the rush cleared it out, but it seemed so empty. All three shelves of pastry were empty with exception of 1 pastry left. There was 1 yogurt left. With the hot breakfast, one of the bins was empty. I asked if a breakfast meat was supposed to be there and the front desk agent was sweet and helpful and got some for me. The sausage links she brought were cold though and I had to heat them up in microwave. The eggs were the type that were circle shaped. I briefly wondered if there were biscuits to make a sandwich but I didn't ask. What I found curious is that salsa was not a condiment for the eggs. A word of advice is to make salsa packets a condiment-this is the first Texas hotel that I have stayed at that does not have it as a condiment. At most TX hotels, hot breakfasts are either pancakes or waffles. This hotel has a pancake maker. Coffee was in the containers that you pump with your hand and I luckily got the last cup. It was typical hotel breakfast fare. Overall, great stay and great place to stay for the money! Would definitely recommend if you're on a budget and need someplace to stay for a quick weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r400628243-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>400628243</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r393376594-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>393376594</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>The most comfortable extended stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand new hotel with plenty ammenities and very comfortable rooms. A great night of sleep awaits you! Very friendly staff from front desk to a very thorough housekeeping. </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r393216193-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>393216193</t>
+  </si>
+  <si>
+    <t>The motel was new and comfortable.Clean bathroom...</t>
+  </si>
+  <si>
+    <t>The motel was new and comfortable.Clean bathroom area.Couldn't cover sheer window curtainsNever received any email confirmations including an additional night(I booked three rooms!)My perception: Lots of 'shady' characters hanging out in the parking lot and on the balconies. I  was uncomfortable at times walking to and from my vehicle.Convenient location and easy to find.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r392634402-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>392634402</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r383777567-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>383777567</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r382862624-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>382862624</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Not your grandma's Days Inn</t>
+  </si>
+  <si>
+    <t>This is actually fairly luxurious - certainly not the Ritz - and I was quite pleasantly surprised. The staff was pretty friendly and the room very nice, complete with fridge and microwave. One problem - the printer in the "business center" was down.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r380638690-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>380638690</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Bugs under bed covers</t>
+  </si>
+  <si>
+    <t>Hotel looked new was checked in to room 112 upon getting ready to go to bed my wife pulled down the sheets and noticed tiny black bugs all over sheets and pillows reported it to front desk and she said she will try to find me another room.After being put in another room our stay was ruined we could not sleep. My wife felt all itchy for the rest of the night. No refund was offered when I requested one so why argue I just left. Bad Service</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r374546442-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>374546442</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r372755454-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>372755454</t>
+  </si>
+  <si>
+    <t>05/14/2016</t>
+  </si>
+  <si>
+    <t>Great stay rooms are wonderful and the bed OMG sleep like a...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay rooms are wonderful and the bed OMG sleep like a baby. Very clean and the staff was wonderful would definitely stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r372176441-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>372176441</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>Bad customer service</t>
+  </si>
+  <si>
+    <t>Customer service was very bad the guy was very rude he cut me off while I was talking every time:.:.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r363671411-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>363671411</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r362167429-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>362167429</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Passing Through</t>
+  </si>
+  <si>
+    <t>Had a handicapped room,. The bench in the shower was broken and pulling the tile off of the wall.   How this was missed when housekeeping was in there is amazing.  Did it get reported and ignored, or not noted.  This room should NOT have been rented!  Desk lamp did not work.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r360753035-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>360753035</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>Perfect!!!</t>
+  </si>
+  <si>
+    <t>We stayed just one night here. The check in staff  (Victor) was very friendly and helpful! The rooms are only 3 months old, large and spotless as is the lobby and breakfast area. Continental breakfast was delicious  all thumbs up here!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Ankit S, General Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded April 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2016</t>
+  </si>
+  <si>
+    <t>We stayed just one night here. The check in staff  (Victor) was very friendly and helpful! The rooms are only 3 months old, large and spotless as is the lobby and breakfast area. Continental breakfast was delicious  all thumbs up here!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r356676068-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>356676068</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Buisness Trip</t>
+  </si>
+  <si>
+    <t>Used Priceline to find a room in Katy to get pass the Houston traffic.  Nice and clean.   Bed was a little higher than most but since I was on buisness trip and not with my wife it was okay.  Courteous check in.  Chose to eat elsewhere but wish I had had the buffett at the hotel.  Overall good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Used Priceline to find a room in Katy to get pass the Houston traffic.  Nice and clean.   Bed was a little higher than most but since I was on buisness trip and not with my wife it was okay.  Courteous check in.  Chose to eat elsewhere but wish I had had the buffett at the hotel.  Overall good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r353956314-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>353956314</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Ankit S, Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r343056303-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>343056303</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Great room, very accommodating!</t>
+  </si>
+  <si>
+    <t>I stayed in room 212, it was a brand new room. Everything was as expected for a low-cost hotel. When I got there, I need to change the type of room (king to double queen) and they were a lot of help and very accommodating. The breakfast was a typical continental, nothing to rave over but I did eat it every morning. Something they should consider changing is the carts they push up and down the outside halls have hard wheels and are VERY noisy on that floor, if it was an air tire or soft rubber tire it would have been much quieter. Would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Ankit S, General Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded January 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2016</t>
+  </si>
+  <si>
+    <t>I stayed in room 212, it was a brand new room. Everything was as expected for a low-cost hotel. When I got there, I need to change the type of room (king to double queen) and they were a lot of help and very accommodating. The breakfast was a typical continental, nothing to rave over but I did eat it every morning. Something they should consider changing is the carts they push up and down the outside halls have hard wheels and are VERY noisy on that floor, if it was an air tire or soft rubber tire it would have been much quieter. Would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r337039794-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>337039794</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Pleasent Stay</t>
+  </si>
+  <si>
+    <t>This hotel just opened and has some kinks to work out nut the property is nice and the staff very friendly and accomodating. I would definitely choose this motel again!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Ankit S, Owner at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>This hotel just opened and has some kinks to work out nut the property is nice and the staff very friendly and accomodating. I would definitely choose this motel again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r335259713-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>335259713</t>
+  </si>
+  <si>
+    <t>12/27/2015</t>
+  </si>
+  <si>
+    <t>Ankit S, Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded January 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2016</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1617,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1649,3900 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>166</v>
+      </c>
+      <c r="O16" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>176</v>
+      </c>
+      <c r="X18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>176</v>
+      </c>
+      <c r="X19" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>211</v>
+      </c>
+      <c r="X23" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>166</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>166</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" t="s">
+        <v>224</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>166</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>226</v>
+      </c>
+      <c r="J27" t="s">
+        <v>227</v>
+      </c>
+      <c r="K27" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" t="s">
+        <v>229</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>166</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s">
+        <v>118</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>166</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>236</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>241</v>
+      </c>
+      <c r="J31" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31" t="s">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>246</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>247</v>
+      </c>
+      <c r="J32" t="s">
+        <v>248</v>
+      </c>
+      <c r="K32" t="s">
+        <v>249</v>
+      </c>
+      <c r="L32" t="s">
+        <v>250</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>251</v>
+      </c>
+      <c r="O32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>253</v>
+      </c>
+      <c r="J33" t="s">
+        <v>254</v>
+      </c>
+      <c r="K33" t="s">
+        <v>255</v>
+      </c>
+      <c r="L33" t="s">
+        <v>256</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>257</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" t="s">
+        <v>260</v>
+      </c>
+      <c r="K34" t="s">
+        <v>261</v>
+      </c>
+      <c r="L34" t="s">
+        <v>262</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>257</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>263</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>264</v>
+      </c>
+      <c r="J35" t="s">
+        <v>265</v>
+      </c>
+      <c r="K35" t="s">
+        <v>266</v>
+      </c>
+      <c r="L35" t="s">
+        <v>267</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>257</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>269</v>
+      </c>
+      <c r="J36" t="s">
+        <v>270</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>271</v>
+      </c>
+      <c r="O36" t="s">
+        <v>101</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>273</v>
+      </c>
+      <c r="J37" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" t="s">
+        <v>275</v>
+      </c>
+      <c r="L37" t="s">
+        <v>276</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>277</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>278</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>279</v>
+      </c>
+      <c r="J38" t="s">
+        <v>280</v>
+      </c>
+      <c r="K38" t="s">
+        <v>281</v>
+      </c>
+      <c r="L38" t="s">
+        <v>282</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>277</v>
+      </c>
+      <c r="O38" t="s">
+        <v>101</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K39" t="s">
+        <v>286</v>
+      </c>
+      <c r="L39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>288</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>290</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>291</v>
+      </c>
+      <c r="J40" t="s">
+        <v>292</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>288</v>
+      </c>
+      <c r="O40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>294</v>
+      </c>
+      <c r="J41" t="s">
+        <v>295</v>
+      </c>
+      <c r="K41" t="s">
+        <v>296</v>
+      </c>
+      <c r="L41" t="s">
+        <v>297</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>298</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>299</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>300</v>
+      </c>
+      <c r="J42" t="s">
+        <v>301</v>
+      </c>
+      <c r="K42" t="s">
+        <v>302</v>
+      </c>
+      <c r="L42" t="s">
+        <v>303</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>304</v>
+      </c>
+      <c r="O42" t="s">
+        <v>101</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>306</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>307</v>
+      </c>
+      <c r="J43" t="s">
+        <v>308</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>309</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>311</v>
+      </c>
+      <c r="J44" t="s">
+        <v>312</v>
+      </c>
+      <c r="K44" t="s">
+        <v>313</v>
+      </c>
+      <c r="L44" t="s">
+        <v>314</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>315</v>
+      </c>
+      <c r="O44" t="s">
+        <v>111</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>316</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>317</v>
+      </c>
+      <c r="J45" t="s">
+        <v>312</v>
+      </c>
+      <c r="K45" t="s">
+        <v>318</v>
+      </c>
+      <c r="L45" t="s">
+        <v>319</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>315</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>320</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>321</v>
+      </c>
+      <c r="J46" t="s">
+        <v>322</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>309</v>
+      </c>
+      <c r="O46" t="s">
+        <v>111</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>323</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>324</v>
+      </c>
+      <c r="J47" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>315</v>
+      </c>
+      <c r="O47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>326</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>327</v>
+      </c>
+      <c r="J48" t="s">
+        <v>328</v>
+      </c>
+      <c r="K48" t="s">
+        <v>329</v>
+      </c>
+      <c r="L48" t="s">
+        <v>330</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>315</v>
+      </c>
+      <c r="O48" t="s">
+        <v>111</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>331</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>332</v>
+      </c>
+      <c r="J49" t="s">
+        <v>333</v>
+      </c>
+      <c r="K49" t="s">
+        <v>334</v>
+      </c>
+      <c r="L49" t="s">
+        <v>335</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>315</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>336</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>337</v>
+      </c>
+      <c r="J50" t="s">
+        <v>338</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>339</v>
+      </c>
+      <c r="O50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>340</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>341</v>
+      </c>
+      <c r="J51" t="s">
+        <v>342</v>
+      </c>
+      <c r="K51" t="s">
+        <v>343</v>
+      </c>
+      <c r="L51" t="s">
+        <v>344</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>339</v>
+      </c>
+      <c r="O51" t="s">
+        <v>101</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>345</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>346</v>
+      </c>
+      <c r="J52" t="s">
+        <v>347</v>
+      </c>
+      <c r="K52" t="s">
+        <v>348</v>
+      </c>
+      <c r="L52" t="s">
+        <v>349</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>339</v>
+      </c>
+      <c r="O52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>350</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>351</v>
+      </c>
+      <c r="J53" t="s">
+        <v>352</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s">
+        <v>118</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>353</v>
+      </c>
+      <c r="O53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>354</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>355</v>
+      </c>
+      <c r="J54" t="s">
+        <v>356</v>
+      </c>
+      <c r="K54" t="s">
+        <v>357</v>
+      </c>
+      <c r="L54" t="s">
+        <v>358</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>353</v>
+      </c>
+      <c r="O54" t="s">
+        <v>62</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>359</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>360</v>
+      </c>
+      <c r="J55" t="s">
+        <v>361</v>
+      </c>
+      <c r="K55" t="s">
+        <v>362</v>
+      </c>
+      <c r="L55" t="s">
+        <v>363</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>364</v>
+      </c>
+      <c r="O55" t="s">
+        <v>101</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>365</v>
+      </c>
+      <c r="X55" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>368</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>369</v>
+      </c>
+      <c r="J56" t="s">
+        <v>370</v>
+      </c>
+      <c r="K56" t="s">
+        <v>371</v>
+      </c>
+      <c r="L56" t="s">
+        <v>372</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>364</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>365</v>
+      </c>
+      <c r="X56" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>374</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>375</v>
+      </c>
+      <c r="J57" t="s">
+        <v>376</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s">
+        <v>118</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>364</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>377</v>
+      </c>
+      <c r="X57" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>379</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>380</v>
+      </c>
+      <c r="J58" t="s">
+        <v>381</v>
+      </c>
+      <c r="K58" t="s">
+        <v>382</v>
+      </c>
+      <c r="L58" t="s">
+        <v>383</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>384</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>385</v>
+      </c>
+      <c r="X58" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>388</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>389</v>
+      </c>
+      <c r="J59" t="s">
+        <v>390</v>
+      </c>
+      <c r="K59" t="s">
+        <v>391</v>
+      </c>
+      <c r="L59" t="s">
+        <v>392</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>393</v>
+      </c>
+      <c r="O59" t="s">
+        <v>101</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>394</v>
+      </c>
+      <c r="X59" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>397</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>398</v>
+      </c>
+      <c r="J60" t="s">
+        <v>399</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s">
+        <v>118</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>393</v>
+      </c>
+      <c r="O60" t="s">
+        <v>101</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>400</v>
+      </c>
+      <c r="X60" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_175.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_175.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="614">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,66 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r610683980-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>8735880</t>
+  </si>
+  <si>
+    <t>610683980</t>
+  </si>
+  <si>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>More than happy</t>
+  </si>
+  <si>
+    <t>Excellent price, service, staff, amenities and place. The breakfast is a continental one, offering scramble eggs, biscuit, sausages, bread, milk, yogurt, bottle juice, cornflakes and fruit. Above all the manager and receptionists were all extremely helpful with every single detail. I would definitely come back to this place every time if Im in Katy again. The motel has free parking and great general view from every spot. Besides it has its own security surveillance and its located between two more hotels.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r589199930-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>589199930</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Stayover for Meeting</t>
+  </si>
+  <si>
+    <t>The front desk personnel was very friendly, especially at checkout.  They were very accommodating.  The room was comfortably cool and the bed allowed for a good night's sleep.  We did not stay for breakfast as we had to leave warly.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty1, Hotel Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2018</t>
+  </si>
+  <si>
+    <t>The front desk personnel was very friendly, especially at checkout.  They were very accommodating.  The room was comfortably cool and the bed allowed for a good night's sleep.  We did not stay for breakfast as we had to leave warly.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r584118249-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
-    <t>56062</t>
-  </si>
-  <si>
-    <t>8735880</t>
-  </si>
-  <si>
     <t>584118249</t>
   </si>
   <si>
@@ -246,6 +294,72 @@
     <t>I absolutely loved staying at the Days Inn. Danny the receptionist was very helpful and friendly as well as the other staff members.The breakfast had a great selection to choose from which I loved. The room was very clean and neat. The King size bed was so comfortable! I absolutely loved staying here and will be coming back again. I had a wonderful experience here and highly recommend this place.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r575854348-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>575854348</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The Hotel was very clean and the rooms were excellent! Very nice breakfast and Danny the manager has excellent customer service! The hotel is brand new, the Direct TV is great in the room, and the bed was very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty1, Hotel Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>The Hotel was very clean and the rooms were excellent! Very nice breakfast and Danny the manager has excellent customer service! The hotel is brand new, the Direct TV is great in the room, and the bed was very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r575664608-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>575664608</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Excellent staff</t>
+  </si>
+  <si>
+    <t>Wyndham messed up our reservation on April 20. When we arrived at 10:00 p.m., Day’s Inn didn’t show a reservation. The man at the desk (I believe his name was Danny) was so accommodating and helpful. He found us a room that was an upgrade and honored the price on our previous reservation! I will definitely stay here the next time we’re in Katy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wyndham messed up our reservation on April 20. When we arrived at 10:00 p.m., Day’s Inn didn’t show a reservation. The man at the desk (I believe his name was Danny) was so accommodating and helpful. He found us a room that was an upgrade and honored the price on our previous reservation! I will definitely stay here the next time we’re in Katy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r574769031-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>574769031</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>My home away from home</t>
+  </si>
+  <si>
+    <t>My wife and I have been staying at the Days Inn &amp; Suites in Katy, Texas for the last two weeks while I have been taking medical treatment for cancer at MD Anderson Hospital, Katy. Our stay has been very enjoyable due to having a good clean room to relax in.  The Management has been very cooperative about working with us to accommodate our schedule for treatment. We have four more weeks of treatment left and plan on continuing our stay at the Days Inn &amp; Suites in Katy.  I would recommend it highly.MoreShow less</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty1, Hotel Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2018</t>
+  </si>
+  <si>
+    <t>My wife and I have been staying at the Days Inn &amp; Suites in Katy, Texas for the last two weeks while I have been taking medical treatment for cancer at MD Anderson Hospital, Katy. Our stay has been very enjoyable due to having a good clean room to relax in.  The Management has been very cooperative about working with us to accommodate our schedule for treatment. We have four more weeks of treatment left and plan on continuing our stay at the Days Inn &amp; Suites in Katy.  I would recommend it highly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r574651704-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -261,12 +375,6 @@
     <t>Stayed here for a week.  The rate includes breakfast, if you want breakfast, you need to go early, since they tend to run out of food. I asked if the had any more and the gentleman at the desk said no they were all out.  There were no more eggs or bananas, then the cleaning crew arrived and told the gentleman at the front desk they were out of bananas, he said there was more in the back and they got the food out and started eating the food.  The rooms are ok.MoreShow less</t>
   </si>
   <si>
-    <t>DaysInnSuitesKaty1, Hotel Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded April 27, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 27, 2018</t>
-  </si>
-  <si>
     <t>Stayed here for a week.  The rate includes breakfast, if you want breakfast, you need to go early, since they tend to run out of food. I asked if the had any more and the gentleman at the desk said no they were all out.  There were no more eggs or bananas, then the cleaning crew arrived and told the gentleman at the front desk they were out of bananas, he said there was more in the back and they got the food out and started eating the food.  The rooms are ok.More</t>
   </si>
   <si>
@@ -303,6 +411,57 @@
     <t>Great hotel friendly and helpfull staff hotel is new  rooms were really neat and clean awesome breakfast great location so many restaurants near by and good part is all the rooms are non smoking so really a great hotel for family 100% recommended.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r573303813-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>573303813</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>days inn &amp; suites katy</t>
+  </si>
+  <si>
+    <t>Conviencely located right off the interstate.  We are handicapped and requested a handicap room.  the main complaint is that when we pulled up to the room rhere were no handicapped parking spaces which meant that we had a high step up of concrete to get to the room .  it was hard with a walker to left let alone step up that highMoreShow less</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty1, Hotel Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Conviencely located right off the interstate.  We are handicapped and requested a handicap room.  the main complaint is that when we pulled up to the room rhere were no handicapped parking spaces which meant that we had a high step up of concrete to get to the room .  it was hard with a walker to left let alone step up that highMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r566157943-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>566157943</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Lower cost and clean in great area</t>
+  </si>
+  <si>
+    <t>Great room at an affordable price with lots of places in the area. Walking distance from a couple handful of nightlife places, restaurants and 5 minute drive to katy mills mall and waterpark. Great breakfast with eggs and sausage on top of the waffles, muffins...etc. However one thing did bother me. We were eating breakfast and the man at the front desk went to the bathroom just adjacent to the food area. as he walked out in a hurry from the bathroom the toilet was in mid flush like he just flushed it and there is no way he washed his hands. he walked into the back and came out with more eggs to put on the breakfast line. I was absolutely disgusted and could not eat another bite. I would not recommend eating the free breakfast here until proper sanitation and rules are practiced. I would even pay the extra 20-30 dollars for another hotel in the nose area just because of this. Motel outside doors on the outside of units which is fine but for 20-30 dollars more i could have had a better end to the experience and enjoyed a better hotel. Also fitness center was two machines, one treadmill and one elliptical. no weights...etcMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty1, Hotel Manager at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Great room at an affordable price with lots of places in the area. Walking distance from a couple handful of nightlife places, restaurants and 5 minute drive to katy mills mall and waterpark. Great breakfast with eggs and sausage on top of the waffles, muffins...etc. However one thing did bother me. We were eating breakfast and the man at the front desk went to the bathroom just adjacent to the food area. as he walked out in a hurry from the bathroom the toilet was in mid flush like he just flushed it and there is no way he washed his hands. he walked into the back and came out with more eggs to put on the breakfast line. I was absolutely disgusted and could not eat another bite. I would not recommend eating the free breakfast here until proper sanitation and rules are practiced. I would even pay the extra 20-30 dollars for another hotel in the nose area just because of this. Motel outside doors on the outside of units which is fine but for 20-30 dollars more i could have had a better end to the experience and enjoyed a better hotel. Also fitness center was two machines, one treadmill and one elliptical. no weights...etcMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r559700565-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -321,9 +480,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>DaysInnSuitesKaty, Webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded February 14, 2018</t>
   </si>
   <si>
@@ -384,6 +540,36 @@
     <t>More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r553594860-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>553594860</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, Webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r549926591-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>549926591</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, Webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r548898727-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -450,6 +636,50 @@
     <t>Responded November 29, 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r542308466-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>542308466</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r540691530-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>540691530</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Clean Comfortable Handicap Room But Watch Your Charges</t>
+  </si>
+  <si>
+    <t>I went looking for a hotel in the Katy area later than I usually do, and had a problem finding one under $150 with vacancies. This one averaged $114 for two nights but after taxes it totaled $264. Watch your credit card charges; the day we checked in they double billed us, with two charges for $132, and a single one for $264!! The extra charge was reversed the day we checked out. I’m betting that the polite young lady that did the checkout saw the error and corrected it without saying anything to me.
+We ended up in room 113 which is set up for handicap use and was quite clean (the wife did cleaning work for several years so we know what is clean). I do remodeling work for the handicapped and so I can tell you that a wheelchair bound person would find the bathroom easier to use than most claiming to be "accessible". The bathroom is the full width of the room and has 36”+ door. It has a tub on one end with two different height grab bars. It has a decent; adjustable height handheld shower unit, but most likely for safety reasons the water is only warm, you can’t get close to hot. The other end has a handicap height toilet in the left-hand corner of the room that allows plenty of room for transfer with a grab bar that is almost in the...I went looking for a hotel in the Katy area later than I usually do, and had a problem finding one under $150 with vacancies. This one averaged $114 for two nights but after taxes it totaled $264. Watch your credit card charges; the day we checked in they double billed us, with two charges for $132, and a single one for $264!! The extra charge was reversed the day we checked out. I’m betting that the polite young lady that did the checkout saw the error and corrected it without saying anything to me.We ended up in room 113 which is set up for handicap use and was quite clean (the wife did cleaning work for several years so we know what is clean). I do remodeling work for the handicapped and so I can tell you that a wheelchair bound person would find the bathroom easier to use than most claiming to be "accessible". The bathroom is the full width of the room and has 36”+ door. It has a tub on one end with two different height grab bars. It has a decent; adjustable height handheld shower unit, but most likely for safety reasons the water is only warm, you can’t get close to hot. The other end has a handicap height toilet in the left-hand corner of the room that allows plenty of room for transfer with a grab bar that is almost in the right place.  While the bathroom was quite clean, there were a couple of baseboard tiles that were coming loose. The light/vent control switch for the bathroom is in the bedroom area next to the bathroom door along with the sink that is a little high but wheelchair accessible.The two queen size beds are firm and with pillows of varied firmness you’re sure to find one you can sleep with. The thermostat is not accessible via wheelchair, but the A/C and heat (we got to use both) keeps the room comfortable. The Direct-TV on the flat screen tv was functioning normal with a large selection of programs to choose from. That same dresser has an accessible drawers and clothes hanging arrangement and a 1 cup coffee pot. While the room can take 4, there was only one bag of regular, and another of decaf and two cups set out to use.The “Continental Breakfast” left a lot to be desired. There was NO coffee available; supposedly the coffee maker was broken (both days we were there). Don’t bother with the Apple and Orange juice that are offered, the Apple juice is 99.9% water, and the orange juice while somewhat orange flavored was just plain nasty. There were two cereals to choose from and a server with some eggs and meat that were better than nothing. A couple of bananas and other fruits were in a large bowl and that was about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, Webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>I went looking for a hotel in the Katy area later than I usually do, and had a problem finding one under $150 with vacancies. This one averaged $114 for two nights but after taxes it totaled $264. Watch your credit card charges; the day we checked in they double billed us, with two charges for $132, and a single one for $264!! The extra charge was reversed the day we checked out. I’m betting that the polite young lady that did the checkout saw the error and corrected it without saying anything to me.
+We ended up in room 113 which is set up for handicap use and was quite clean (the wife did cleaning work for several years so we know what is clean). I do remodeling work for the handicapped and so I can tell you that a wheelchair bound person would find the bathroom easier to use than most claiming to be "accessible". The bathroom is the full width of the room and has 36”+ door. It has a tub on one end with two different height grab bars. It has a decent; adjustable height handheld shower unit, but most likely for safety reasons the water is only warm, you can’t get close to hot. The other end has a handicap height toilet in the left-hand corner of the room that allows plenty of room for transfer with a grab bar that is almost in the...I went looking for a hotel in the Katy area later than I usually do, and had a problem finding one under $150 with vacancies. This one averaged $114 for two nights but after taxes it totaled $264. Watch your credit card charges; the day we checked in they double billed us, with two charges for $132, and a single one for $264!! The extra charge was reversed the day we checked out. I’m betting that the polite young lady that did the checkout saw the error and corrected it without saying anything to me.We ended up in room 113 which is set up for handicap use and was quite clean (the wife did cleaning work for several years so we know what is clean). I do remodeling work for the handicapped and so I can tell you that a wheelchair bound person would find the bathroom easier to use than most claiming to be "accessible". The bathroom is the full width of the room and has 36”+ door. It has a tub on one end with two different height grab bars. It has a decent; adjustable height handheld shower unit, but most likely for safety reasons the water is only warm, you can’t get close to hot. The other end has a handicap height toilet in the left-hand corner of the room that allows plenty of room for transfer with a grab bar that is almost in the right place.  While the bathroom was quite clean, there were a couple of baseboard tiles that were coming loose. The light/vent control switch for the bathroom is in the bedroom area next to the bathroom door along with the sink that is a little high but wheelchair accessible.The two queen size beds are firm and with pillows of varied firmness you’re sure to find one you can sleep with. The thermostat is not accessible via wheelchair, but the A/C and heat (we got to use both) keeps the room comfortable. The Direct-TV on the flat screen tv was functioning normal with a large selection of programs to choose from. That same dresser has an accessible drawers and clothes hanging arrangement and a 1 cup coffee pot. While the room can take 4, there was only one bag of regular, and another of decaf and two cups set out to use.The “Continental Breakfast” left a lot to be desired. There was NO coffee available; supposedly the coffee maker was broken (both days we were there). Don’t bother with the Apple and Orange juice that are offered, the Apple juice is 99.9% water, and the orange juice while somewhat orange flavored was just plain nasty. There were two cereals to choose from and a server with some eggs and meat that were better than nothing. A couple of bananas and other fruits were in a large bowl and that was about it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r539863783-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -489,9 +719,6 @@
     <t>This is a nice hotel that is convenient to I-10.  We enjoyed a clean, nice sized suite with a very comfortable bed and absolutely awesome pillows. Breakfast featured sausage and eggs as well as the usual continental breakfast items. We would stay again.MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>DaysInnSuitesKaty, Webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded November 3, 2017</t>
   </si>
   <si>
@@ -528,6 +755,36 @@
     <t>Good location just off the interstate, checkin was quick, and staff was friendly enough.The room was fine, quite large, well appointed and clean.Breakfast was disappointing, minimal hot food and no condiments. Overall decent value.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r536205678-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>536205678</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, Webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded October 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r536056508-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>536056508</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>DaysInnSuitesKaty, webmaster at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r524432064-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -588,6 +845,39 @@
     <t>Let me start off by saying that the staff here is very friendly, helpful and very compassionate to us in our time of need. Maintaining their high standard of customer service. I also want to thank the cleaning staff for their hospitality. Thank you for making us feel welcome. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r516336994-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>516336994</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>The hotel is a good value at under 65 a night. Internet connection sucks in most rooms and doesn't work at least for me half the time. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is a good value at under 65 a night. Internet connection sucks in most rooms and doesn't work at least for me half the time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r513977244-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>513977244</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice visit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spent 3 nights here to visit family so we just wanted a place to sleep. Our room was clean and the bed comfortable. The front desk pleasant and helpful. The breakfast was better than expected. Sausage and eggs daily, Philadelphia cream cheese. Was it the Ritz? Of course not but its a budget hotel. Would have been nice to have bagels but when I saw how many people came in to take food to the room, I got it. Definitely will be back in the future </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r505886470-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -636,6 +926,30 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r496209451-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>496209451</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r493731530-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>493731530</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Affordable Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The price for the hotel stay was affordable.The location of the hotel was close to some of the places that I had to visit. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r493480860-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -684,6 +998,39 @@
     <t>I did not get the suite I was supposed to get and did not receive the discount on the room I was told I would get for staying in a smaller room.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r488575359-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>488575359</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Never again. There is a reason the nightly rate is so cheap!!</t>
+  </si>
+  <si>
+    <t>I walked in to check in at 3am when I came off of the interstate driving 6 hours. The front desk clerk was asleep on the sofa. When I woke him, he checked me in and gave me a key to a room. Now about 3:30am, I'm dragging my suitcases up the stairs to the second floor and open the door to the room, and see that it is clearly occupied!!!!  Scared to death and extremely tired I drag my suitcases back down the stairs and go back into the lobby. The desk clerk, again sleeping on the sofa, never apologizing for his mistake hands me a key to a new room, on the second floor in a dark back corner of the hotel. Did I mention I was alone at 3:30am in the morning?  When I talked to the manager of the hotel about this ordeal, he credited me a half of a night on my stay.  I guess that is what my safety and inconvenience is worth ($40).  Holiday Inn was across the street. Spend the extra $20 a night. You will thank me.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I walked in to check in at 3am when I came off of the interstate driving 6 hours. The front desk clerk was asleep on the sofa. When I woke him, he checked me in and gave me a key to a room. Now about 3:30am, I'm dragging my suitcases up the stairs to the second floor and open the door to the room, and see that it is clearly occupied!!!!  Scared to death and extremely tired I drag my suitcases back down the stairs and go back into the lobby. The desk clerk, again sleeping on the sofa, never apologizing for his mistake hands me a key to a new room, on the second floor in a dark back corner of the hotel. Did I mention I was alone at 3:30am in the morning?  When I talked to the manager of the hotel about this ordeal, he credited me a half of a night on my stay.  I guess that is what my safety and inconvenience is worth ($40).  Holiday Inn was across the street. Spend the extra $20 a night. You will thank me.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r488204905-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>488204905</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Infested with roaches!</t>
+  </si>
+  <si>
+    <t>I found multiple dead roaches in the coffee maker. I thought someone was playing a prank until I saw  couple of live ones in the room.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r487967264-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -717,6 +1064,33 @@
     <t>05/16/2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r483046652-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>483046652</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r482226780-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>482226780</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Worst hotel stay ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I booked this room thru booking.com. was supposed to have a room with a spa tub. Nope. Then there were rude guests making noise until 3am. Called the front desk twice to deal with it. Nope. I will never stay at a days Inn or any Windham hotel again. They suck! </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r479533054-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -726,9 +1100,6 @@
     <t>04/27/2017</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r476879239-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -756,6 +1127,39 @@
     <t>We were cruising out of Galveston &amp; had a room booked there for the night before. We found out storms were to come through that day, so we decided to leave a day earlier. Our hotel had no avail so I found this. The hotel was super clean. The guys at the front desk were so nice and personable. There are some restaurants within a 5 mile drive which was nice. The cable worked and the wifi signal was good. The ONLY complaint I have is that while the hotel is somewhat set back off of the roadway, all I heard all night was the cars and sirens. It was like I had a window open. In a pinch, I'd stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r464397228-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>464397228</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>There was poop on the floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At first glance the room as good, a little bit of a weird smell but we just sprayed some body spray. Then when we went to adjust the A/C we notice that there is poop on the floor off in a corner of the room. When I called the office, I felt they brushed it off. Yes, they cleaned it but it shouldn't have been there to begin with. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r462115726-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>462115726</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Business and fun</t>
+  </si>
+  <si>
+    <t>When I made my reservation I had reserved a king bed. When I got to my room it was two queens but overall the room was nice and clean. Went for breakfast the next morning and it was totally non existent. Had to even ask for coffee because it was empty. So overall the room was nice and bed comfortable but needs to work on ensuring there is some kind of breakfast as offered.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r459710293-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -771,9 +1175,6 @@
     <t>Room was nice and clean. But internet was down and there was no phone that worked in our room. The breakfast with was pretty much non existent and coffee was never made.</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r456748764-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -807,6 +1208,33 @@
     <t>Hotel was very clean, room was very very nice, clean, neighbors were quiet and it was my daughter and I, both women and I felt safe.  Night desk guy really helpful and very kind, I was exhausted when I got there and he put us downstairs and was really quick checking us in.  Will stay here again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r452888015-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>452888015</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel; good value for money</t>
+  </si>
+  <si>
+    <t>Modern room: refrigerator, microwave, coffee-maker; Pristine bathroom; Excellent breakfast; good Wi-Fi; value for money; Convenient locationHelpful and courteous front-desk staff.Would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r449276643-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>449276643</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r448336649-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -831,9 +1259,6 @@
     <t>12/27/2016</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r439290684-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -852,6 +1277,33 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r438648377-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>438648377</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r437126486-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>437126486</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>they stole my moms ring worth $6,000 dollars</t>
+  </si>
+  <si>
+    <t>It’s been the worst hotel in my life. First off the first night the AC wasn’t working. The next morning my whole family went to the front desk to eat breakfast and to let the receptionist (her name was Pia) know about the AC issue. She said she was going to the room to check the AC but since all our belongings were in the room my husband went with her. For our bad luck my mom had left a little bag with her 3 rings and pearl earrings. One of her ring was almost $6,000 dollars’ worth. My husband said he never saw the (Pia) receptionist get anything but when they left to the lounge again the room stayed by itself and it that gap she disappeared a few times. She had told my husband that she was going to call someone to fix it.  After 40 min later we all went back to the room and with the big surprise “they stole the bag with my mom’s rings and earrings”. I went back to the front desk and the receptionist said to check the bags that she didn’t know anything. I asked her if someone went to the room since she had said she was going to send someone and she said she had never said that.  I told her that I want to see the cameras and she said the manager had to go to the hotel,...It’s been the worst hotel in my life. First off the first night the AC wasn’t working. The next morning my whole family went to the front desk to eat breakfast and to let the receptionist (her name was Pia) know about the AC issue. She said she was going to the room to check the AC but since all our belongings were in the room my husband went with her. For our bad luck my mom had left a little bag with her 3 rings and pearl earrings. One of her ring was almost $6,000 dollars’ worth. My husband said he never saw the (Pia) receptionist get anything but when they left to the lounge again the room stayed by itself and it that gap she disappeared a few times. She had told my husband that she was going to call someone to fix it.  After 40 min later we all went back to the room and with the big surprise “they stole the bag with my mom’s rings and earrings”. I went back to the front desk and the receptionist said to check the bags that she didn’t know anything. I asked her if someone went to the room since she had said she was going to send someone and she said she had never said that.  I told her that I want to see the cameras and she said the manager had to go to the hotel, he never did and he never called me. That same Saturday I went back at night and I told a different receptionist about the incident and he said he was going to let the manager know because the manager wasn’t never aware about the incident. Long story short, after a few hours the manager came after 12 midnight and was with the cops. They never saw anything in the cameras. It was the worst weekend ever. And to close, they rented out the same room 101 to another family even though they knew the AC wasn’t working. Don’t stay in that hotel, believe me something is going to happened.MoreShow less</t>
+  </si>
+  <si>
+    <t>It’s been the worst hotel in my life. First off the first night the AC wasn’t working. The next morning my whole family went to the front desk to eat breakfast and to let the receptionist (her name was Pia) know about the AC issue. She said she was going to the room to check the AC but since all our belongings were in the room my husband went with her. For our bad luck my mom had left a little bag with her 3 rings and pearl earrings. One of her ring was almost $6,000 dollars’ worth. My husband said he never saw the (Pia) receptionist get anything but when they left to the lounge again the room stayed by itself and it that gap she disappeared a few times. She had told my husband that she was going to call someone to fix it.  After 40 min later we all went back to the room and with the big surprise “they stole the bag with my mom’s rings and earrings”. I went back to the front desk and the receptionist said to check the bags that she didn’t know anything. I asked her if someone went to the room since she had said she was going to send someone and she said she had never said that.  I told her that I want to see the cameras and she said the manager had to go to the hotel,...It’s been the worst hotel in my life. First off the first night the AC wasn’t working. The next morning my whole family went to the front desk to eat breakfast and to let the receptionist (her name was Pia) know about the AC issue. She said she was going to the room to check the AC but since all our belongings were in the room my husband went with her. For our bad luck my mom had left a little bag with her 3 rings and pearl earrings. One of her ring was almost $6,000 dollars’ worth. My husband said he never saw the (Pia) receptionist get anything but when they left to the lounge again the room stayed by itself and it that gap she disappeared a few times. She had told my husband that she was going to call someone to fix it.  After 40 min later we all went back to the room and with the big surprise “they stole the bag with my mom’s rings and earrings”. I went back to the front desk and the receptionist said to check the bags that she didn’t know anything. I asked her if someone went to the room since she had said she was going to send someone and she said she had never said that.  I told her that I want to see the cameras and she said the manager had to go to the hotel, he never did and he never called me. That same Saturday I went back at night and I told a different receptionist about the incident and he said he was going to let the manager know because the manager wasn’t never aware about the incident. Long story short, after a few hours the manager came after 12 midnight and was with the cops. They never saw anything in the cameras. It was the worst weekend ever. And to close, they rented out the same room 101 to another family even though they knew the AC wasn’t working. Don’t stay in that hotel, believe me something is going to happened.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r435992958-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -895,6 +1347,39 @@
   </si>
   <si>
     <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r430455099-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>430455099</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Restful Night in Katy</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at the Days Inn in Katy, Texas. The room was clean and the beds were comfortable. I was going to stay a second night, but my sister was moved from Methodist West Hospital to another hospital closer to her home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r425761712-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>425761712</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Get that sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here for a stay-cation with the kids just for fun! It was clean, the staff was friendly and breakfast was delicious! I highly recommend staying here since it's a little bit easier on the wallet and free breakfast :) Easy access and lots of parking spaces! If you are ever win Katy for the water park, business or just visiting here is a place to keep in mind. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r421995772-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
@@ -931,9 +1416,6 @@
  Everything was pretty much great with exception of my experience with the breakfast area. In all fairness it was 915 when I showed up so maybe the rush cleared it out, but it seemed so empty. All three shelves of pastry were empty with exception of 1 pastry left. There was 1 yogurt left. With the hot breakfast, one of the bins was empty. I asked if a breakfast meat was supposed to be there and the front desk agent was sweet and helpful and got...My husband booked the room for the price so I was skeptical. We pulled up and it was a rather small hotel with doors accessible from the outside and in my experience those types of rooms never impress me. A nice feature that I greatly appreciated is that where the building makes a 90 degree angle, there is an outdoor elevator (on opposite end are stairs). I was pleasantly suprised because the room was really nice and modern. We stayed in a room with a king bed. I'm 5'6" and the bed was high, to where I had to stand on the balls of my feet to hop onto it. I don't know if I was just really tired, but I must say I slept very comfortably. Most importantly, it was clean. For the price, I was also suprised that it came with a microwave and mini fridge which are always nice and convenient.  Everything was pretty much great with exception of my experience with the breakfast area. In all fairness it was 915 when I showed up so maybe the rush cleared it out, but it seemed so empty. All three shelves of pastry were empty with exception of 1 pastry left. There was 1 yogurt left. With the hot breakfast, one of the bins was empty. I asked if a breakfast meat was supposed to be there and the front desk agent was sweet and helpful and got some for me. The sausage links she brought were cold though and I had to heat them up in microwave. The eggs were the type that were circle shaped. I briefly wondered if there were biscuits to make a sandwich but I didn't ask. What I found curious is that salsa was not a condiment for the eggs. A word of advice is to make salsa packets a condiment-this is the first Texas hotel that I have stayed at that does not have it as a condiment. At most TX hotels, hot breakfasts are either pancakes or waffles. This hotel has a pancake maker. Coffee was in the containers that you pump with your hand and I luckily got the last cup. It was typical hotel breakfast fare. Overall, great stay and great place to stay for the money! Would definitely recommend if you're on a budget and need someplace to stay for a quick weekend.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>My husband booked the room for the price so I was skeptical. We pulled up and it was a rather small hotel with doors accessible from the outside and in my experience those types of rooms never impress me. A nice feature that I greatly appreciated is that where the building makes a 90 degree angle, there is an outdoor elevator (on opposite end are stairs). I was pleasantly suprised because the room was really nice and modern. We stayed in a room with a king bed. I'm 5'6" and the bed was high, to where I had to stand on the balls of my feet to hop onto it. I don't know if I was just really tired, but I must say I slept very comfortably. Most importantly, it was clean. For the price, I was also suprised that it came with a microwave and mini fridge which are always nice and convenient. 
  Everything was pretty much great with exception of my experience with the breakfast area. In all fairness it was 915 when I showed up so maybe the rush cleared it out, but it seemed so empty. All three shelves of pastry were empty with exception of 1 pastry left. There was 1 yogurt left. With the hot breakfast, one of the bins was empty. I asked if a breakfast meat was supposed to be there and the front desk agent was sweet and helpful and got...My husband booked the room for the price so I was skeptical. We pulled up and it was a rather small hotel with doors accessible from the outside and in my experience those types of rooms never impress me. A nice feature that I greatly appreciated is that where the building makes a 90 degree angle, there is an outdoor elevator (on opposite end are stairs). I was pleasantly suprised because the room was really nice and modern. We stayed in a room with a king bed. I'm 5'6" and the bed was high, to where I had to stand on the balls of my feet to hop onto it. I don't know if I was just really tired, but I must say I slept very comfortably. Most importantly, it was clean. For the price, I was also suprised that it came with a microwave and mini fridge which are always nice and convenient.  Everything was pretty much great with exception of my experience with the breakfast area. In all fairness it was 915 when I showed up so maybe the rush cleared it out, but it seemed so empty. All three shelves of pastry were empty with exception of 1 pastry left. There was 1 yogurt left. With the hot breakfast, one of the bins was empty. I asked if a breakfast meat was supposed to be there and the front desk agent was sweet and helpful and got some for me. The sausage links she brought were cold though and I had to heat them up in microwave. The eggs were the type that were circle shaped. I briefly wondered if there were biscuits to make a sandwich but I didn't ask. What I found curious is that salsa was not a condiment for the eggs. A word of advice is to make salsa packets a condiment-this is the first Texas hotel that I have stayed at that does not have it as a condiment. At most TX hotels, hot breakfasts are either pancakes or waffles. This hotel has a pancake maker. Coffee was in the containers that you pump with your hand and I luckily got the last cup. It was typical hotel breakfast fare. Overall, great stay and great place to stay for the money! Would definitely recommend if you're on a budget and need someplace to stay for a quick weekend.More</t>
   </si>
@@ -950,6 +1432,30 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r400523826-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>400523826</t>
+  </si>
+  <si>
+    <t>Unhappy customer</t>
+  </si>
+  <si>
+    <t>I arrived at the hotel at 12:30 I need to check in and drop my bags off and rush off to my family reunion It took me at least 30 minutes to check in and there was a charge for checking in before three very unhappy about that I realize we did not have enough toweIs I called down to see if someone   could bring me more towels she informed me I have to come down and pick them up  She would only give one face towel and One bath towel I informed her that I needed more she left me outside of the lobby for 15 minutes while she go get more towels I told the hotel provided breakfast got downstairs at 9:20 breakfast over at 9:30 all the food was gone  The rooms were very nice and clean MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived at the hotel at 12:30 I need to check in and drop my bags off and rush off to my family reunion It took me at least 30 minutes to check in and there was a charge for checking in before three very unhappy about that I realize we did not have enough toweIs I called down to see if someone   could bring me more towels she informed me I have to come down and pick them up  She would only give one face towel and One bath towel I informed her that I needed more she left me outside of the lobby for 15 minutes while she go get more towels I told the hotel provided breakfast got downstairs at 9:20 breakfast over at 9:30 all the food was gone  The rooms were very nice and clean More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r397558844-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>397558844</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r393376594-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -989,6 +1495,24 @@
     <t>07/14/2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r385875615-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>385875615</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r385314522-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>385314522</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r383777567-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1028,18 +1552,39 @@
     <t>Hotel looked new was checked in to room 112 upon getting ready to go to bed my wife pulled down the sheets and noticed tiny black bugs all over sheets and pillows reported it to front desk and she said she will try to find me another room.After being put in another room our stay was ruined we could not sleep. My wife felt all itchy for the rest of the night. No refund was offered when I requested one so why argue I just left. Bad Service</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r379348426-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>379348426</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r374691519-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>374691519</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Other than the domestic dispute and limited parking, this property meet all my needs. It was very clean and the guy at check in was nice. There are a lot of dining and shopping options near by.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r374546442-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
     <t>374546442</t>
   </si>
   <si>
-    <t>05/19/2016</t>
-  </si>
-  <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r372755454-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1070,6 +1615,39 @@
     <t>Customer service was very bad the guy was very rude he cut me off while I was talking every time:.:.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r369577692-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>369577692</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Katy Days Inn</t>
+  </si>
+  <si>
+    <t>The floor was wet under the air conditioning system and the maids came knocking at 9:30 in the morning and again at 10:30, even though official check out is at 11:00</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r365812145-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>365812145</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Clean and cheap</t>
+  </si>
+  <si>
+    <t>This hotel is obviously new and very clean. The room smelled great! The bed was incredibly comfy and soft, the AC blew really cold and they have Direct TV. The only complaint I have is the breakfast was terrible! All they had was cereal and bread for toast. Theyou didn't even have any juice in the juice machine. But for $55 a night I can buy my own breakfast :)</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r363671411-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1079,9 +1657,6 @@
     <t>04/12/2016</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r362167429-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1124,6 +1699,42 @@
     <t>We stayed just one night here. The check in staff  (Victor) was very friendly and helpful! The rooms are only 3 months old, large and spotless as is the lobby and breakfast area. Continental breakfast was delicious  all thumbs up here!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r359418465-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>359418465</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Breakfast left much to be desired, staff wasn't very...</t>
+  </si>
+  <si>
+    <t>Breakfast left much to be desired, staff wasn't very friendly but overall the room was comfortable MoreShow less</t>
+  </si>
+  <si>
+    <t>Breakfast left much to be desired, staff wasn't very friendly but overall the room was comfortable More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r359030279-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>359030279</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Clean and friendly but with some quirks</t>
+  </si>
+  <si>
+    <t>This is a new property with several other brand new hotels in the vicinity. The room was very clean as was the breakfast room/lobby. Management, unfortunately, seemed new and untrained. They were very nice and personable but each day we had to go and get towels and other things that should have been replenished when housekeeping came in. Also, the microwave and juice machine at breakfast were out of order and staff was not perceptive to coffee, etc. running low without reminders. But as mentioned, it was VERY CLEAN and the beds were very comfortable. But if you are short, hone your climbing skills: the beds are pretty high up.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a new property with several other brand new hotels in the vicinity. The room was very clean as was the breakfast room/lobby. Management, unfortunately, seemed new and untrained. They were very nice and personable but each day we had to go and get towels and other things that should have been replenished when housekeeping came in. Also, the microwave and juice machine at breakfast were out of order and staff was not perceptive to coffee, etc. running low without reminders. But as mentioned, it was VERY CLEAN and the beds were very comfortable. But if you are short, hone your climbing skills: the beds are pretty high up.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r356676068-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1184,6 +1795,39 @@
     <t>I stayed in room 212, it was a brand new room. Everything was as expected for a low-cost hotel. When I got there, I need to change the type of room (king to double queen) and they were a lot of help and very accommodating. The breakfast was a typical continental, nothing to rave over but I did eat it every morning. Something they should consider changing is the carts they push up and down the outside halls have hard wheels and are VERY noisy on that floor, if it was an air tire or soft rubber tire it would have been much quieter. Would stay here again!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r342043529-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>342043529</t>
+  </si>
+  <si>
+    <t>01/22/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r339796653-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>339796653</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Great new property</t>
+  </si>
+  <si>
+    <t>This property had only been opened a few weeks when we decided to book a reservation for the night.  It is right off the hwy and around everything.  Gabrielle was the night associate who bent over backwards to ensure our stay was great.  The reason this property did not received 5 stars, in my book, is because for breakfast they have a pancake machine which produces rubbery pancakes.  Also, if your accommodation has a stove, it will be up to you to bring your own cookware, plates and such.  Not sure of the methodology behind that one, but they will give you a stove and fridge but no pots, pans or dishes.  Other Days Inn's have a more desirable breakfast.  Other than that, the rooms was great, and the help was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ankit S, Owner at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>This property had only been opened a few weeks when we decided to book a reservation for the night.  It is right off the hwy and around everything.  Gabrielle was the night associate who bent over backwards to ensure our stay was great.  The reason this property did not received 5 stars, in my book, is because for breakfast they have a pancake machine which produces rubbery pancakes.  Also, if your accommodation has a stove, it will be up to you to bring your own cookware, plates and such.  Not sure of the methodology behind that one, but they will give you a stove and fridge but no pots, pans or dishes.  Other Days Inn's have a more desirable breakfast.  Other than that, the rooms was great, and the help was nice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8735880-r337039794-Days_Inn_Suites_by_Wyndham_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1200,12 +1844,6 @@
   </si>
   <si>
     <t>December 2015</t>
-  </si>
-  <si>
-    <t>Ankit S, Owner at Days Inn &amp; Suites by Wyndham Katy, responded to this reviewResponded January 26, 2016</t>
-  </si>
-  <si>
-    <t>Responded January 26, 2016</t>
   </si>
   <si>
     <t>This hotel just opened and has some kinks to work out nut the property is nice and the staff very friendly and accomodating. I would definitely choose this motel again!More</t>
@@ -1766,18 +2404,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="n">
         <v>5</v>
       </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>5</v>
@@ -1785,14 +2417,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1808,62 +2436,52 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="X3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Y3" t="s">
         <v>62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
-      <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1879,52 +2497,62 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
         <v>70</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="X4" t="s">
         <v>71</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Y4" t="s">
         <v>72</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>73</v>
-      </c>
-      <c r="X4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1940,56 +2568,62 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
         <v>78</v>
       </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
         <v>81</v>
-      </c>
-      <c r="X5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -2005,34 +2639,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>85</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O6" t="s">
-        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2044,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -2066,7 +2700,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2075,25 +2709,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2105,13 +2739,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -2127,7 +2761,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2136,49 +2770,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -2194,7 +2822,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2203,53 +2831,47 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
         <v>112</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>113</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -2265,60 +2887,56 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>115</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>116</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>117</v>
       </c>
-      <c r="K10" t="s"/>
       <c r="L10" t="s">
         <v>118</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
         <v>119</v>
-      </c>
-      <c r="X10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -2334,62 +2952,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
         <v>122</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>123</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>124</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>111</v>
+      </c>
+      <c r="X11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y11" t="s">
         <v>125</v>
-      </c>
-      <c r="L11" t="s">
-        <v>126</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
-      <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s">
-        <v>127</v>
-      </c>
-      <c r="X11" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12">
@@ -2405,62 +3013,52 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>111</v>
+      </c>
+      <c r="X12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y12" t="s">
         <v>130</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" t="s">
-        <v>134</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>100</v>
-      </c>
-      <c r="O12" t="s">
-        <v>111</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
-      <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>135</v>
-      </c>
-      <c r="X12" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="13">
@@ -2476,7 +3074,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2485,51 +3083,53 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
-      </c>
-      <c r="K13" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="O13" t="s">
         <v>53</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
         <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -2545,48 +3145,58 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
         <v>144</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>145</v>
-      </c>
-      <c r="J14" t="s">
-        <v>146</v>
-      </c>
-      <c r="K14" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" t="s">
-        <v>148</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
@@ -2602,39 +3212,39 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
         <v>152</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
         <v>153</v>
       </c>
-      <c r="J15" t="s">
-        <v>154</v>
-      </c>
-      <c r="K15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L15" t="s">
-        <v>156</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>157</v>
-      </c>
       <c r="O15" t="s">
-        <v>101</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="n">
         <v>4</v>
@@ -2647,13 +3257,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -2669,56 +3279,62 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
         <v>161</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>162</v>
       </c>
-      <c r="J16" t="s">
+      <c r="O16" t="s">
         <v>163</v>
       </c>
-      <c r="K16" t="s">
-        <v>164</v>
-      </c>
-      <c r="L16" t="s">
-        <v>165</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>166</v>
-      </c>
-      <c r="O16" t="s">
-        <v>101</v>
-      </c>
       <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
@@ -2734,40 +3350,38 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s">
         <v>170</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J17" t="s">
-        <v>172</v>
-      </c>
-      <c r="K17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L17" t="s">
-        <v>174</v>
-      </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>5</v>
@@ -2783,13 +3397,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
@@ -2805,7 +3419,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2814,51 +3428,51 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="X18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y18" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
@@ -2874,52 +3488,60 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>182</v>
+      </c>
+      <c r="X19" t="s">
         <v>183</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>184</v>
-      </c>
-      <c r="J19" t="s">
-        <v>185</v>
-      </c>
-      <c r="K19" t="s">
-        <v>186</v>
-      </c>
-      <c r="L19" t="s">
-        <v>187</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>188</v>
-      </c>
-      <c r="O19" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
-      <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
-        <v>176</v>
-      </c>
-      <c r="X19" t="s">
-        <v>177</v>
-      </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
@@ -2935,7 +3557,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2944,31 +3566,31 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="O20" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
         <v>5</v>
@@ -2978,15 +3600,19 @@
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>189</v>
+      </c>
+      <c r="X20" t="s">
+        <v>190</v>
+      </c>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
@@ -3002,46 +3628,60 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s">
         <v>195</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>196</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>153</v>
+      </c>
+      <c r="O21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
         <v>197</v>
       </c>
-      <c r="K21" t="s">
+      <c r="X21" t="s">
         <v>198</v>
       </c>
-      <c r="L21" t="s">
-        <v>199</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s">
-        <v>175</v>
-      </c>
-      <c r="O21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
-      <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
       <c r="Y21" t="s">
         <v>199</v>
       </c>
@@ -3073,20 +3713,18 @@
       <c r="J22" t="s">
         <v>202</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" t="s"/>
+      <c r="L22" t="s">
+        <v>170</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>203</v>
       </c>
-      <c r="L22" t="s">
-        <v>204</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>205</v>
-      </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3107,10 +3745,14 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>204</v>
+      </c>
+      <c r="X22" t="s">
+        <v>205</v>
+      </c>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
@@ -3140,48 +3782,46 @@
       <c r="J23" t="s">
         <v>208</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" t="s"/>
+      <c r="L23" t="s">
+        <v>170</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>209</v>
       </c>
-      <c r="L23" t="s">
-        <v>210</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>205</v>
-      </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
+        <v>210</v>
+      </c>
+      <c r="X23" t="s">
         <v>211</v>
       </c>
-      <c r="X23" t="s">
-        <v>212</v>
-      </c>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
@@ -3197,53 +3837,59 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
         <v>214</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>215</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>216</v>
       </c>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
         <v>5</v>
       </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
+      <c r="W24" t="s">
+        <v>217</v>
+      </c>
+      <c r="X24" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3258,7 +3904,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3267,49 +3913,39 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="s">
-        <v>166</v>
-      </c>
-      <c r="O25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>225</v>
+      </c>
+      <c r="X25" t="s">
+        <v>226</v>
+      </c>
       <c r="Y25" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
@@ -3325,7 +3961,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3334,31 +3970,31 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="J26" t="s">
-        <v>224</v>
-      </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
+        <v>230</v>
+      </c>
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
         <v>4</v>
       </c>
@@ -3369,9 +4005,15 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
+      <c r="W26" t="s">
+        <v>233</v>
+      </c>
+      <c r="X26" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3386,7 +4028,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3395,49 +4037,47 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>242</v>
+      </c>
+      <c r="X27" t="s">
+        <v>243</v>
+      </c>
       <c r="Y27" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28">
@@ -3453,7 +4093,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3462,47 +4102,51 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="J28" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R28" t="n">
         <v>5</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>248</v>
+      </c>
+      <c r="X28" t="s">
+        <v>249</v>
+      </c>
       <c r="Y28" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -3518,7 +4162,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3527,30 +4171,32 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="J29" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
+      <c r="L29" t="s">
+        <v>170</v>
+      </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3562,9 +4208,15 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
+      <c r="W29" t="s">
+        <v>253</v>
+      </c>
+      <c r="X29" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3579,7 +4231,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3588,21 +4240,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
-      </c>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
+        <v>257</v>
+      </c>
+      <c r="K30" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" t="s">
+        <v>259</v>
+      </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3623,9 +4279,15 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
+      <c r="W30" t="s">
+        <v>261</v>
+      </c>
+      <c r="X30" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3640,7 +4302,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3649,43 +4311,51 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="J31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K31" t="s">
-        <v>243</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s">
-        <v>101</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
       <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>261</v>
+      </c>
+      <c r="X31" t="s">
+        <v>262</v>
+      </c>
       <c r="Y31" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32">
@@ -3701,7 +4371,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3710,49 +4380,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="J32" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="O32" t="s">
-        <v>101</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>2</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>261</v>
+      </c>
+      <c r="X32" t="s">
+        <v>262</v>
+      </c>
       <c r="Y32" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33">
@@ -3768,7 +4432,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3777,49 +4441,53 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="J33" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="K33" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>273</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
         <v>3</v>
       </c>
-      <c r="N33" t="s">
-        <v>257</v>
-      </c>
-      <c r="O33" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>261</v>
+      </c>
+      <c r="X33" t="s">
+        <v>262</v>
+      </c>
       <c r="Y33" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34">
@@ -3835,7 +4503,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3844,49 +4512,39 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="J34" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="K34" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35">
@@ -3902,7 +4560,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3911,39 +4569,49 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="J35" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="K35" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="L35" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
-      </c>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36">
@@ -3959,7 +4627,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3968,44 +4636,40 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="J36" t="s">
-        <v>270</v>
-      </c>
-      <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
+        <v>293</v>
+      </c>
+      <c r="K36" t="s">
+        <v>294</v>
+      </c>
+      <c r="L36" t="s">
+        <v>295</v>
+      </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="O36" t="s">
-        <v>101</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
+      <c r="Y36" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4020,7 +4684,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4029,25 +4693,25 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="J37" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="K37" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4071,7 +4735,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38">
@@ -4087,7 +4751,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4096,40 +4760,44 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="J38" t="s">
-        <v>280</v>
-      </c>
-      <c r="K38" t="s">
-        <v>281</v>
-      </c>
-      <c r="L38" t="s">
-        <v>282</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="O38" t="s">
-        <v>101</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
-      <c r="Y38" t="s">
-        <v>282</v>
-      </c>
+      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4144,7 +4812,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4153,35 +4821,41 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="J39" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="K39" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4189,7 +4863,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40">
@@ -4205,7 +4879,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4214,44 +4888,54 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J40" t="s">
-        <v>292</v>
-      </c>
-      <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
+        <v>312</v>
+      </c>
+      <c r="K40" t="s">
+        <v>313</v>
+      </c>
+      <c r="L40" t="s">
+        <v>314</v>
+      </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
         <v>4</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
+      <c r="W40" t="s">
+        <v>315</v>
+      </c>
+      <c r="X40" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4266,7 +4950,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4275,40 +4959,44 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="J41" t="s">
-        <v>295</v>
-      </c>
-      <c r="K41" t="s">
-        <v>296</v>
-      </c>
-      <c r="L41" t="s">
-        <v>297</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
-      </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
-      <c r="Y41" t="s">
-        <v>297</v>
-      </c>
+      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4323,7 +5011,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4332,39 +5020,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="J42" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="K42" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="L42" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="O42" t="s">
-        <v>101</v>
-      </c>
-      <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43">
@@ -4380,7 +5078,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4389,44 +5087,50 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="J43" t="s">
-        <v>308</v>
-      </c>
-      <c r="K43" t="s"/>
-      <c r="L43" t="s"/>
+        <v>328</v>
+      </c>
+      <c r="K43" t="s">
+        <v>329</v>
+      </c>
+      <c r="L43" t="s">
+        <v>330</v>
+      </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
+      <c r="Y43" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4441,7 +5145,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4450,41 +5154,41 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="J44" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="K44" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="L44" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>315</v>
+        <v>241</v>
       </c>
       <c r="O44" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
         <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4492,7 +5196,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45">
@@ -4508,7 +5212,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4517,28 +5221,24 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="J45" t="s">
-        <v>312</v>
-      </c>
-      <c r="K45" t="s">
-        <v>318</v>
-      </c>
-      <c r="L45" t="s">
-        <v>319</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>315</v>
+        <v>241</v>
       </c>
       <c r="O45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
         <v>4</v>
@@ -4558,9 +5258,7 @@
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
-      <c r="Y45" t="s">
-        <v>319</v>
-      </c>
+      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4575,7 +5273,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4584,44 +5282,50 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="J46" t="s">
-        <v>322</v>
-      </c>
-      <c r="K46" t="s"/>
-      <c r="L46" t="s"/>
+        <v>342</v>
+      </c>
+      <c r="K46" t="s">
+        <v>343</v>
+      </c>
+      <c r="L46" t="s">
+        <v>344</v>
+      </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="O46" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
+      <c r="Y46" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4636,7 +5340,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4645,44 +5349,48 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="J47" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="K47" t="s"/>
-      <c r="L47" t="s"/>
+      <c r="L47" t="s">
+        <v>170</v>
+      </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>315</v>
+        <v>241</v>
       </c>
       <c r="O47" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
         <v>3</v>
       </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
+      <c r="Y47" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4697,7 +5405,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4706,46 +5414,44 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="J48" t="s">
-        <v>328</v>
-      </c>
-      <c r="K48" t="s">
-        <v>329</v>
-      </c>
-      <c r="L48" t="s">
-        <v>330</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>315</v>
+        <v>241</v>
       </c>
       <c r="O48" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
       <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
-      <c r="Y48" t="s">
-        <v>330</v>
-      </c>
+      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4760,7 +5466,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4769,25 +5475,25 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="J49" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="K49" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="L49" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="O49" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -4796,10 +5502,10 @@
         <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
@@ -4811,7 +5517,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50">
@@ -4827,7 +5533,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4836,10 +5542,10 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="J50" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s"/>
@@ -4847,10 +5553,10 @@
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -4866,7 +5572,7 @@
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4888,7 +5594,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4897,25 +5603,21 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="J51" t="s">
-        <v>342</v>
-      </c>
-      <c r="K51" t="s">
-        <v>343</v>
-      </c>
-      <c r="L51" t="s">
-        <v>344</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="O51" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -4938,9 +5640,7 @@
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
-      <c r="Y51" t="s">
-        <v>344</v>
-      </c>
+      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4955,7 +5655,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -4964,39 +5664,35 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="J52" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="K52" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="O52" t="s">
-        <v>62</v>
-      </c>
-      <c r="P52" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="s"/>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5004,7 +5700,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53">
@@ -5020,7 +5716,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5029,39 +5725,41 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="J53" t="s">
-        <v>352</v>
-      </c>
-      <c r="K53" t="s"/>
+        <v>371</v>
+      </c>
+      <c r="K53" t="s">
+        <v>372</v>
+      </c>
       <c r="L53" t="s">
-        <v>118</v>
+        <v>373</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="O53" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
         <v>3</v>
       </c>
-      <c r="Q53" t="n">
-        <v>4</v>
-      </c>
       <c r="R53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5069,7 +5767,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>121</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54">
@@ -5085,7 +5783,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5094,41 +5792,41 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="J54" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="K54" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="O54" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
         <v>4</v>
       </c>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5136,7 +5834,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55">
@@ -5152,7 +5850,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5161,43 +5859,49 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="J55" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="K55" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="L55" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="O55" t="s">
-        <v>101</v>
-      </c>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
-        <v>365</v>
-      </c>
-      <c r="X55" t="s">
-        <v>366</v>
-      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56">
@@ -5213,7 +5917,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5222,53 +5926,49 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="J56" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="K56" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="L56" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
         <v>3</v>
-      </c>
-      <c r="S56" t="n">
-        <v>4</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>365</v>
-      </c>
-      <c r="X56" t="s">
-        <v>366</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57">
@@ -5284,7 +5984,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5293,23 +5993,25 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="J57" t="s">
-        <v>376</v>
-      </c>
-      <c r="K57" t="s"/>
+        <v>393</v>
+      </c>
+      <c r="K57" t="s">
+        <v>394</v>
+      </c>
       <c r="L57" t="s">
-        <v>118</v>
+        <v>395</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5325,19 +6027,15 @@
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
-        <v>377</v>
-      </c>
-      <c r="X57" t="s">
-        <v>378</v>
-      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>121</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58">
@@ -5353,7 +6051,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5362,28 +6060,30 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="J58" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="K58" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="L58" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="O58" t="s">
         <v>53</v>
       </c>
       <c r="P58" t="s"/>
-      <c r="Q58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
       <c r="R58" t="n">
         <v>5</v>
       </c>
@@ -5395,14 +6095,10 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
-        <v>385</v>
-      </c>
-      <c r="X58" t="s">
-        <v>386</v>
-      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59">
@@ -5418,7 +6114,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5427,54 +6123,44 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="J59" t="s">
-        <v>390</v>
-      </c>
-      <c r="K59" t="s">
-        <v>391</v>
-      </c>
-      <c r="L59" t="s">
-        <v>392</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
       <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>404</v>
+      </c>
+      <c r="O59" t="s">
+        <v>78</v>
+      </c>
+      <c r="P59" t="n">
         <v>3</v>
       </c>
-      <c r="N59" t="s">
-        <v>393</v>
-      </c>
-      <c r="O59" t="s">
-        <v>101</v>
-      </c>
-      <c r="P59" t="n">
-        <v>4</v>
-      </c>
       <c r="Q59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
-        <v>394</v>
-      </c>
-      <c r="X59" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>396</v>
-      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5489,7 +6175,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5498,51 +6184,2664 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="J60" t="s">
-        <v>399</v>
-      </c>
-      <c r="K60" t="s"/>
+        <v>407</v>
+      </c>
+      <c r="K60" t="s">
+        <v>408</v>
+      </c>
       <c r="L60" t="s">
-        <v>118</v>
+        <v>409</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O60" t="s">
-        <v>101</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>5</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s">
-        <v>400</v>
-      </c>
-      <c r="X60" t="s">
-        <v>401</v>
-      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>121</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>410</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>411</v>
+      </c>
+      <c r="J61" t="s">
+        <v>412</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>404</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>413</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>414</v>
+      </c>
+      <c r="J62" t="s">
+        <v>415</v>
+      </c>
+      <c r="K62" t="s">
+        <v>416</v>
+      </c>
+      <c r="L62" t="s">
+        <v>417</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>418</v>
+      </c>
+      <c r="O62" t="s">
+        <v>69</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>419</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>420</v>
+      </c>
+      <c r="J63" t="s">
+        <v>421</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>418</v>
+      </c>
+      <c r="O63" t="s">
+        <v>163</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>422</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>423</v>
+      </c>
+      <c r="J64" t="s">
+        <v>424</v>
+      </c>
+      <c r="K64" t="s">
+        <v>425</v>
+      </c>
+      <c r="L64" t="s">
+        <v>426</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>418</v>
+      </c>
+      <c r="O64" t="s">
+        <v>78</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>428</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>429</v>
+      </c>
+      <c r="J65" t="s">
+        <v>430</v>
+      </c>
+      <c r="K65" t="s">
+        <v>431</v>
+      </c>
+      <c r="L65" t="s">
+        <v>432</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>418</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>433</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>434</v>
+      </c>
+      <c r="J66" t="s">
+        <v>435</v>
+      </c>
+      <c r="K66" t="s">
+        <v>436</v>
+      </c>
+      <c r="L66" t="s">
+        <v>437</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>438</v>
+      </c>
+      <c r="O66" t="s">
+        <v>78</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>440</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>441</v>
+      </c>
+      <c r="J67" t="s">
+        <v>442</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>438</v>
+      </c>
+      <c r="O67" t="s">
+        <v>78</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>444</v>
+      </c>
+      <c r="J68" t="s">
+        <v>445</v>
+      </c>
+      <c r="K68" t="s">
+        <v>446</v>
+      </c>
+      <c r="L68" t="s">
+        <v>447</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>438</v>
+      </c>
+      <c r="O68" t="s">
+        <v>78</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>448</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>449</v>
+      </c>
+      <c r="J69" t="s">
+        <v>450</v>
+      </c>
+      <c r="K69" t="s">
+        <v>451</v>
+      </c>
+      <c r="L69" t="s">
+        <v>452</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>453</v>
+      </c>
+      <c r="O69" t="s">
+        <v>78</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>454</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>455</v>
+      </c>
+      <c r="J70" t="s">
+        <v>456</v>
+      </c>
+      <c r="K70" t="s">
+        <v>457</v>
+      </c>
+      <c r="L70" t="s">
+        <v>458</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>459</v>
+      </c>
+      <c r="O70" t="s">
+        <v>78</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>460</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>461</v>
+      </c>
+      <c r="J71" t="s">
+        <v>462</v>
+      </c>
+      <c r="K71" t="s">
+        <v>463</v>
+      </c>
+      <c r="L71" t="s">
+        <v>464</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>453</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>466</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>467</v>
+      </c>
+      <c r="J72" t="s">
+        <v>468</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>469</v>
+      </c>
+      <c r="O72" t="s">
+        <v>69</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>470</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>471</v>
+      </c>
+      <c r="J73" t="s">
+        <v>468</v>
+      </c>
+      <c r="K73" t="s">
+        <v>472</v>
+      </c>
+      <c r="L73" t="s">
+        <v>473</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>469</v>
+      </c>
+      <c r="O73" t="s">
+        <v>78</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>475</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>476</v>
+      </c>
+      <c r="J74" t="s">
+        <v>477</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>469</v>
+      </c>
+      <c r="O74" t="s">
+        <v>78</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>478</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>479</v>
+      </c>
+      <c r="J75" t="s">
+        <v>480</v>
+      </c>
+      <c r="K75" t="s">
+        <v>481</v>
+      </c>
+      <c r="L75" t="s">
+        <v>482</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>483</v>
+      </c>
+      <c r="O75" t="s">
+        <v>163</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>484</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>485</v>
+      </c>
+      <c r="J76" t="s">
+        <v>480</v>
+      </c>
+      <c r="K76" t="s">
+        <v>486</v>
+      </c>
+      <c r="L76" t="s">
+        <v>487</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>483</v>
+      </c>
+      <c r="O76" t="s">
+        <v>88</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>488</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>489</v>
+      </c>
+      <c r="J77" t="s">
+        <v>490</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>469</v>
+      </c>
+      <c r="O77" t="s">
+        <v>163</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>491</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>492</v>
+      </c>
+      <c r="J78" t="s">
+        <v>493</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>483</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>494</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>495</v>
+      </c>
+      <c r="J79" t="s">
+        <v>496</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>483</v>
+      </c>
+      <c r="O79" t="s">
+        <v>163</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>497</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>498</v>
+      </c>
+      <c r="J80" t="s">
+        <v>499</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>483</v>
+      </c>
+      <c r="O80" t="s">
+        <v>78</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>500</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>501</v>
+      </c>
+      <c r="J81" t="s">
+        <v>502</v>
+      </c>
+      <c r="K81" t="s">
+        <v>503</v>
+      </c>
+      <c r="L81" t="s">
+        <v>504</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>483</v>
+      </c>
+      <c r="O81" t="s">
+        <v>163</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>505</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>506</v>
+      </c>
+      <c r="J82" t="s">
+        <v>507</v>
+      </c>
+      <c r="K82" t="s">
+        <v>508</v>
+      </c>
+      <c r="L82" t="s">
+        <v>509</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>483</v>
+      </c>
+      <c r="O82" t="s">
+        <v>78</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>510</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>511</v>
+      </c>
+      <c r="J83" t="s">
+        <v>512</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s">
+        <v>170</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>513</v>
+      </c>
+      <c r="O83" t="s">
+        <v>78</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>514</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>515</v>
+      </c>
+      <c r="J84" t="s">
+        <v>516</v>
+      </c>
+      <c r="K84" t="s">
+        <v>517</v>
+      </c>
+      <c r="L84" t="s">
+        <v>518</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>513</v>
+      </c>
+      <c r="O84" t="s">
+        <v>163</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>519</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>520</v>
+      </c>
+      <c r="J85" t="s">
+        <v>516</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>513</v>
+      </c>
+      <c r="O85" t="s">
+        <v>78</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>521</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>522</v>
+      </c>
+      <c r="J86" t="s">
+        <v>523</v>
+      </c>
+      <c r="K86" t="s">
+        <v>524</v>
+      </c>
+      <c r="L86" t="s">
+        <v>525</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>513</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>526</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>527</v>
+      </c>
+      <c r="J87" t="s">
+        <v>528</v>
+      </c>
+      <c r="K87" t="s">
+        <v>529</v>
+      </c>
+      <c r="L87" t="s">
+        <v>530</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>513</v>
+      </c>
+      <c r="O87" t="s">
+        <v>78</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>531</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>532</v>
+      </c>
+      <c r="J88" t="s">
+        <v>533</v>
+      </c>
+      <c r="K88" t="s">
+        <v>534</v>
+      </c>
+      <c r="L88" t="s">
+        <v>535</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>536</v>
+      </c>
+      <c r="O88" t="s">
+        <v>78</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>537</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>538</v>
+      </c>
+      <c r="J89" t="s">
+        <v>539</v>
+      </c>
+      <c r="K89" t="s">
+        <v>540</v>
+      </c>
+      <c r="L89" t="s">
+        <v>541</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>536</v>
+      </c>
+      <c r="O89" t="s">
+        <v>163</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>542</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>543</v>
+      </c>
+      <c r="J90" t="s">
+        <v>544</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s">
+        <v>170</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>536</v>
+      </c>
+      <c r="O90" t="s">
+        <v>88</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>545</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>546</v>
+      </c>
+      <c r="J91" t="s">
+        <v>547</v>
+      </c>
+      <c r="K91" t="s">
+        <v>548</v>
+      </c>
+      <c r="L91" t="s">
+        <v>549</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>536</v>
+      </c>
+      <c r="O91" t="s">
+        <v>78</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>550</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>551</v>
+      </c>
+      <c r="J92" t="s">
+        <v>552</v>
+      </c>
+      <c r="K92" t="s">
+        <v>553</v>
+      </c>
+      <c r="L92" t="s">
+        <v>554</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>555</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>556</v>
+      </c>
+      <c r="X92" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>559</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>560</v>
+      </c>
+      <c r="J93" t="s">
+        <v>561</v>
+      </c>
+      <c r="K93" t="s">
+        <v>562</v>
+      </c>
+      <c r="L93" t="s">
+        <v>563</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>555</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>556</v>
+      </c>
+      <c r="X93" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>565</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>566</v>
+      </c>
+      <c r="J94" t="s">
+        <v>567</v>
+      </c>
+      <c r="K94" t="s">
+        <v>568</v>
+      </c>
+      <c r="L94" t="s">
+        <v>569</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>555</v>
+      </c>
+      <c r="O94" t="s">
+        <v>78</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>556</v>
+      </c>
+      <c r="X94" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>571</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>572</v>
+      </c>
+      <c r="J95" t="s">
+        <v>573</v>
+      </c>
+      <c r="K95" t="s">
+        <v>574</v>
+      </c>
+      <c r="L95" t="s">
+        <v>575</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>555</v>
+      </c>
+      <c r="O95" t="s">
+        <v>69</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>556</v>
+      </c>
+      <c r="X95" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>577</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>578</v>
+      </c>
+      <c r="J96" t="s">
+        <v>579</v>
+      </c>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s">
+        <v>170</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>555</v>
+      </c>
+      <c r="O96" t="s">
+        <v>69</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>580</v>
+      </c>
+      <c r="X96" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>582</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>583</v>
+      </c>
+      <c r="J97" t="s">
+        <v>584</v>
+      </c>
+      <c r="K97" t="s">
+        <v>585</v>
+      </c>
+      <c r="L97" t="s">
+        <v>586</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>587</v>
+      </c>
+      <c r="O97" t="s">
+        <v>69</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>588</v>
+      </c>
+      <c r="X97" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>591</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>592</v>
+      </c>
+      <c r="J98" t="s">
+        <v>593</v>
+      </c>
+      <c r="K98" t="s"/>
+      <c r="L98" t="s">
+        <v>170</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>587</v>
+      </c>
+      <c r="O98" t="s">
+        <v>78</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>588</v>
+      </c>
+      <c r="X98" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>594</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>595</v>
+      </c>
+      <c r="J99" t="s">
+        <v>596</v>
+      </c>
+      <c r="K99" t="s">
+        <v>597</v>
+      </c>
+      <c r="L99" t="s">
+        <v>598</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>587</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>599</v>
+      </c>
+      <c r="X99" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>602</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>603</v>
+      </c>
+      <c r="J100" t="s">
+        <v>604</v>
+      </c>
+      <c r="K100" t="s">
+        <v>605</v>
+      </c>
+      <c r="L100" t="s">
+        <v>606</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>607</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>599</v>
+      </c>
+      <c r="X100" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>64852</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>609</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>610</v>
+      </c>
+      <c r="J101" t="s">
+        <v>611</v>
+      </c>
+      <c r="K101" t="s"/>
+      <c r="L101" t="s">
+        <v>170</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>607</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>612</v>
+      </c>
+      <c r="X101" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
